--- a/Reports/results.xlsx
+++ b/Reports/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD92FA4C-689C-4D6A-8AAE-74CF5490C67A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B649F0-EC99-44C8-A293-B0C92E7360EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>Classifier</t>
   </si>
@@ -219,18 +218,74 @@
   </si>
   <si>
     <t>49.15%</t>
+  </si>
+  <si>
+    <t>78.94%</t>
+  </si>
+  <si>
+    <t>61.85%</t>
+  </si>
+  <si>
+    <t>50.46%</t>
+  </si>
+  <si>
+    <t>73.62%</t>
+  </si>
+  <si>
+    <t>86.83%</t>
+  </si>
+  <si>
+    <t>C=10, max_iter = 2000</t>
+  </si>
+  <si>
+    <t>C= 10^-4 ~10^3 max_iter = 1000,2000,3000</t>
+  </si>
+  <si>
+    <t>SGDC</t>
+  </si>
+  <si>
+    <t>alpha = 10^-4 ~10^3, max_iter= 1000,2000,3000</t>
+  </si>
+  <si>
+    <t>alpha=0.001, max_iter = 1000</t>
+  </si>
+  <si>
+    <t>86.47%</t>
+  </si>
+  <si>
+    <t>71.53%</t>
+  </si>
+  <si>
+    <t>48.83%</t>
+  </si>
+  <si>
+    <t>60.12%</t>
+  </si>
+  <si>
+    <t>81.81%</t>
+  </si>
+  <si>
+    <t>45.76%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,6 +330,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -560,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1048574"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,17 +806,35 @@
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -764,41 +843,41 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>34</v>
+        <v>71</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.84</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -813,39 +892,39 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -857,39 +936,39 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -901,36 +980,90 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="1048574" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="1048576" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
+  <mergeCells count="80">
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
@@ -947,33 +1080,33 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
